--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-domain-VitalSigns-Observation-pulse</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/no-domain-VitalSigns-Observation-pulse</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -480,7 +480,7 @@
     <t>pulseRhythm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsPulseRhythmExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsPulseRhythmExtension}
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>confoundingFactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>clinicalDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsClinicalDescriptionExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsClinicalDescriptionExtension}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>characterOfPulse</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsCharacterOfPulseExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsCharacterOfPulseExtension}
 </t>
   </si>
   <si>
@@ -540,7 +540,7 @@
     <t>BodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsHeartRatePulseBodyPositionExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsHeartRatePulseBodyPositionExtension}
 </t>
   </si>
   <si>
@@ -553,7 +553,7 @@
     <t>pulseRythmIrregularity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsPulseRhythmIrregularityExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsPulseRhythmIrregularityExtension}
 </t>
   </si>
   <si>
@@ -1653,7 +1653,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsPulseBodySiteValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsPulseBodySiteValueSet</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1695,7 +1695,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsPulseMeasurementMethodValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsPulseMeasurementMethodValueSet</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -2451,7 +2451,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="82.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
